--- a/анкеты_данные.xlsx
+++ b/анкеты_данные.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,18 @@
           <t>219939</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>12.05.2025</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
